--- a/BWWBS-GUI/NotSent.xlsx
+++ b/BWWBS-GUI/NotSent.xlsx
@@ -13,10 +13,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t xml:space="preserve">Number Not in WhatsApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">919942482060</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts/>
+  <fonts>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,7 +36,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill/>
     </fill>
@@ -33,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -45,7 +56,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -391,7 +402,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -404,10 +414,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Number Not in WhatsApp</t>
-        </is>
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
